--- a/tel_ptme.xlsx
+++ b/tel_ptme.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3152"/>
+  <dimension ref="A1:D3156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -62520,9 +62520,17 @@
       </c>
     </row>
     <row r="3109">
+      <c r="A3109">
+        <v>209360</v>
+      </c>
+      <c r="B3109" t="inlineStr">
+        <is>
+          <t>GON/CSKS/ST03154</t>
+        </is>
+      </c>
       <c r="C3109" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>32789830</t>
         </is>
       </c>
       <c r="D3109" t="inlineStr">
@@ -62533,36 +62541,36 @@
     </row>
     <row r="3110">
       <c r="A3110">
-        <v>176419</v>
+        <v>209361</v>
       </c>
       <c r="B3110" t="inlineStr">
         <is>
-          <t>PAP/NPFS/ST04252</t>
+          <t>GON/CDIR/ST02106</t>
         </is>
       </c>
       <c r="C3110" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>33789781</t>
         </is>
       </c>
       <c r="D3110" t="inlineStr">
         <is>
-          <t>38624723</t>
+          <t>---</t>
         </is>
       </c>
     </row>
     <row r="3111">
       <c r="A3111">
-        <v>16972</v>
+        <v>209362</v>
       </c>
       <c r="B3111" t="inlineStr">
         <is>
-          <t>BOM/HEBB/ST01541</t>
+          <t>GON/CSKS/ST03155</t>
         </is>
       </c>
       <c r="C3111" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>42284027</t>
         </is>
       </c>
       <c r="D3111" t="inlineStr">
@@ -62573,16 +62581,16 @@
     </row>
     <row r="3112">
       <c r="A3112">
-        <v>193783</v>
+        <v>209363</v>
       </c>
       <c r="B3112" t="inlineStr">
         <is>
-          <t>MCH/HCHM/ST02358</t>
+          <t>GON/CSKS/ST03157</t>
         </is>
       </c>
       <c r="C3112" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>43367574</t>
         </is>
       </c>
       <c r="D3112" t="inlineStr">
@@ -62592,14 +62600,6 @@
       </c>
     </row>
     <row r="3113">
-      <c r="A3113">
-        <v>24723</v>
-      </c>
-      <c r="B3113" t="inlineStr">
-        <is>
-          <t>MON/CSPM/ST00671</t>
-        </is>
-      </c>
       <c r="C3113" t="inlineStr">
         <is>
           <t>---</t>
@@ -62613,11 +62613,11 @@
     </row>
     <row r="3114">
       <c r="A3114">
-        <v>16401</v>
+        <v>176419</v>
       </c>
       <c r="B3114" t="inlineStr">
         <is>
-          <t>BOM/HEBA/ST01398</t>
+          <t>PAP/NPFS/ST04252</t>
         </is>
       </c>
       <c r="C3114" t="inlineStr">
@@ -62627,17 +62627,17 @@
       </c>
       <c r="D3114" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>38624723</t>
         </is>
       </c>
     </row>
     <row r="3115">
       <c r="A3115">
-        <v>31167</v>
+        <v>16972</v>
       </c>
       <c r="B3115" t="inlineStr">
         <is>
-          <t>CAP/CDSF/ST02171</t>
+          <t>BOM/HEBB/ST01541</t>
         </is>
       </c>
       <c r="C3115" t="inlineStr">
@@ -62653,11 +62653,11 @@
     </row>
     <row r="3116">
       <c r="A3116">
-        <v>24077</v>
+        <v>193783</v>
       </c>
       <c r="B3116" t="inlineStr">
         <is>
-          <t>CAP/HSCM/ST02968</t>
+          <t>MCH/HCHM/ST02358</t>
         </is>
       </c>
       <c r="C3116" t="inlineStr">
@@ -62673,31 +62673,31 @@
     </row>
     <row r="3117">
       <c r="A3117">
-        <v>46173</v>
+        <v>24723</v>
       </c>
       <c r="B3117" t="inlineStr">
         <is>
-          <t>BOM/HEBA/ST03278</t>
+          <t>MON/CSPM/ST00671</t>
         </is>
       </c>
       <c r="C3117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>---</t>
         </is>
       </c>
       <c r="D3117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>---</t>
         </is>
       </c>
     </row>
     <row r="3118">
       <c r="A3118">
-        <v>170961</v>
+        <v>16401</v>
       </c>
       <c r="B3118" t="inlineStr">
         <is>
-          <t>CAP/HSCM/ST04641</t>
+          <t>BOM/HEBA/ST01398</t>
         </is>
       </c>
       <c r="C3118" t="inlineStr">
@@ -62713,11 +62713,11 @@
     </row>
     <row r="3119">
       <c r="A3119">
-        <v>37855</v>
+        <v>31167</v>
       </c>
       <c r="B3119" t="inlineStr">
         <is>
-          <t>CAP/CALT/ST01173</t>
+          <t>CAP/CDSF/ST02171</t>
         </is>
       </c>
       <c r="C3119" t="inlineStr">
@@ -62733,11 +62733,11 @@
     </row>
     <row r="3120">
       <c r="A3120">
-        <v>180331</v>
+        <v>24077</v>
       </c>
       <c r="B3120" t="inlineStr">
         <is>
-          <t>CAP/CALT/ST00914</t>
+          <t>CAP/HSCM/ST02968</t>
         </is>
       </c>
       <c r="C3120" t="inlineStr">
@@ -62753,56 +62753,56 @@
     </row>
     <row r="3121">
       <c r="A3121">
-        <v>26696</v>
+        <v>46173</v>
       </c>
       <c r="B3121" t="inlineStr">
         <is>
-          <t>PDP/HICP/ST00940</t>
+          <t>BOM/HEBA/ST03278</t>
         </is>
       </c>
       <c r="C3121" t="inlineStr">
         <is>
-          <t>41447040</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D3121" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3122">
       <c r="A3122">
-        <v>37225</v>
+        <v>170961</v>
       </c>
       <c r="B3122" t="inlineStr">
         <is>
-          <t>SMA/CSSM/ST00700</t>
+          <t>CAP/HSCM/ST04641</t>
         </is>
       </c>
       <c r="C3122" t="inlineStr">
         <is>
-          <t>42616175</t>
+          <t>---</t>
         </is>
       </c>
       <c r="D3122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>---</t>
         </is>
       </c>
     </row>
     <row r="3123">
       <c r="A3123">
-        <v>107084</v>
+        <v>37855</v>
       </c>
       <c r="B3123" t="inlineStr">
         <is>
-          <t>JER/HHFJ/ST00926</t>
+          <t>CAP/CALT/ST01173</t>
         </is>
       </c>
       <c r="C3123" t="inlineStr">
         <is>
-          <t>44396718</t>
+          <t>---</t>
         </is>
       </c>
       <c r="D3123" t="inlineStr">
@@ -62813,16 +62813,16 @@
     </row>
     <row r="3124">
       <c r="A3124">
-        <v>31325</v>
+        <v>180331</v>
       </c>
       <c r="B3124" t="inlineStr">
         <is>
-          <t>GON/CSKS/ST01396</t>
+          <t>CAP/CALT/ST00914</t>
         </is>
       </c>
       <c r="C3124" t="inlineStr">
         <is>
-          <t>32868321</t>
+          <t>---</t>
         </is>
       </c>
       <c r="D3124" t="inlineStr">
@@ -62833,16 +62833,16 @@
     </row>
     <row r="3125">
       <c r="A3125">
-        <v>76115</v>
+        <v>26696</v>
       </c>
       <c r="B3125" t="inlineStr">
         <is>
-          <t>PIG/HOBP/ST00798</t>
+          <t>PDP/HICP/ST00940</t>
         </is>
       </c>
       <c r="C3125" t="inlineStr">
         <is>
-          <t>31484124</t>
+          <t>41447040</t>
         </is>
       </c>
       <c r="D3125" t="inlineStr">
@@ -62853,36 +62853,36 @@
     </row>
     <row r="3126">
       <c r="A3126">
-        <v>16539</v>
+        <v>37225</v>
       </c>
       <c r="B3126" t="inlineStr">
         <is>
-          <t>BOM/HEBA/ST00199</t>
+          <t>SMA/CSSM/ST00700</t>
         </is>
       </c>
       <c r="C3126" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>42616175</t>
         </is>
       </c>
       <c r="D3126" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3127">
       <c r="A3127">
-        <v>184027</v>
+        <v>107084</v>
       </c>
       <c r="B3127" t="inlineStr">
         <is>
-          <t>CAP/CALT/ST02613</t>
+          <t>JER/HHFJ/ST00926</t>
         </is>
       </c>
       <c r="C3127" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>44396718</t>
         </is>
       </c>
       <c r="D3127" t="inlineStr">
@@ -62893,16 +62893,16 @@
     </row>
     <row r="3128">
       <c r="A3128">
-        <v>194691</v>
+        <v>31325</v>
       </c>
       <c r="B3128" t="inlineStr">
         <is>
-          <t>PDP/CMEB/ST05313</t>
+          <t>GON/CSKS/ST01396</t>
         </is>
       </c>
       <c r="C3128" t="inlineStr">
         <is>
-          <t>55040677</t>
+          <t>32868321</t>
         </is>
       </c>
       <c r="D3128" t="inlineStr">
@@ -62913,16 +62913,16 @@
     </row>
     <row r="3129">
       <c r="A3129">
-        <v>199089</v>
+        <v>76115</v>
       </c>
       <c r="B3129" t="inlineStr">
         <is>
-          <t>GON/CSKS/ST02085</t>
+          <t>PIG/HOBP/ST00798</t>
         </is>
       </c>
       <c r="C3129" t="inlineStr">
         <is>
-          <t>33466104</t>
+          <t>31484124</t>
         </is>
       </c>
       <c r="D3129" t="inlineStr">
@@ -62933,16 +62933,16 @@
     </row>
     <row r="3130">
       <c r="A3130">
-        <v>194315</v>
+        <v>16539</v>
       </c>
       <c r="B3130" t="inlineStr">
         <is>
-          <t>PDP/CMEB/ST04704</t>
+          <t>BOM/HEBA/ST00199</t>
         </is>
       </c>
       <c r="C3130" t="inlineStr">
         <is>
-          <t>33474937</t>
+          <t>---</t>
         </is>
       </c>
       <c r="D3130" t="inlineStr">
@@ -62953,11 +62953,11 @@
     </row>
     <row r="3131">
       <c r="A3131">
-        <v>195472</v>
+        <v>184027</v>
       </c>
       <c r="B3131" t="inlineStr">
         <is>
-          <t>CAP/UCMN/ST00328</t>
+          <t>CAP/CALT/ST02613</t>
         </is>
       </c>
       <c r="C3131" t="inlineStr">
@@ -62973,16 +62973,16 @@
     </row>
     <row r="3132">
       <c r="A3132">
-        <v>118329</v>
+        <v>194691</v>
       </c>
       <c r="B3132" t="inlineStr">
         <is>
-          <t>GON/CSKS/ST02154</t>
+          <t>PDP/CMEB/ST05313</t>
         </is>
       </c>
       <c r="C3132" t="inlineStr">
         <is>
-          <t>50932521347</t>
+          <t>55040677</t>
         </is>
       </c>
       <c r="D3132" t="inlineStr">
@@ -62993,16 +62993,16 @@
     </row>
     <row r="3133">
       <c r="A3133">
-        <v>195609</v>
+        <v>199089</v>
       </c>
       <c r="B3133" t="inlineStr">
         <is>
-          <t>CAP/CMCD/ST01570</t>
+          <t>GON/CSKS/ST02085</t>
         </is>
       </c>
       <c r="C3133" t="inlineStr">
         <is>
-          <t>43300682</t>
+          <t>33466104</t>
         </is>
       </c>
       <c r="D3133" t="inlineStr">
@@ -63013,16 +63013,16 @@
     </row>
     <row r="3134">
       <c r="A3134">
-        <v>188255</v>
+        <v>194315</v>
       </c>
       <c r="B3134" t="inlineStr">
         <is>
-          <t>CAP/CALT/ST00226</t>
+          <t>PDP/CMEB/ST04704</t>
         </is>
       </c>
       <c r="C3134" t="inlineStr">
         <is>
-          <t>41339275</t>
+          <t>33474937</t>
         </is>
       </c>
       <c r="D3134" t="inlineStr">
@@ -63033,16 +63033,16 @@
     </row>
     <row r="3135">
       <c r="A3135">
-        <v>198008</v>
+        <v>195472</v>
       </c>
       <c r="B3135" t="inlineStr">
         <is>
-          <t>GON/CSKS/ST02951</t>
+          <t>CAP/UCMN/ST00328</t>
         </is>
       </c>
       <c r="C3135" t="inlineStr">
         <is>
-          <t>42917906</t>
+          <t>---</t>
         </is>
       </c>
       <c r="D3135" t="inlineStr">
@@ -63053,36 +63053,36 @@
     </row>
     <row r="3136">
       <c r="A3136">
-        <v>197715</v>
+        <v>118329</v>
       </c>
       <c r="B3136" t="inlineStr">
         <is>
-          <t>PDP/HICP/ST06232</t>
+          <t>GON/CSKS/ST02154</t>
         </is>
       </c>
       <c r="C3136" t="inlineStr">
         <is>
-          <t>43282011</t>
+          <t>50932521347</t>
         </is>
       </c>
       <c r="D3136" t="inlineStr">
         <is>
-          <t>46347852</t>
+          <t>---</t>
         </is>
       </c>
     </row>
     <row r="3137">
       <c r="A3137">
-        <v>200313</v>
+        <v>195609</v>
       </c>
       <c r="B3137" t="inlineStr">
         <is>
-          <t>PIG/CSSR/ST00847</t>
+          <t>CAP/CMCD/ST01570</t>
         </is>
       </c>
       <c r="C3137" t="inlineStr">
         <is>
-          <t>40284420</t>
+          <t>43300682</t>
         </is>
       </c>
       <c r="D3137" t="inlineStr">
@@ -63093,16 +63093,16 @@
     </row>
     <row r="3138">
       <c r="A3138">
-        <v>20076</v>
+        <v>188255</v>
       </c>
       <c r="B3138" t="inlineStr">
         <is>
-          <t>CAP/HSCM/ST03050</t>
+          <t>CAP/CALT/ST00226</t>
         </is>
       </c>
       <c r="C3138" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>41339275</t>
         </is>
       </c>
       <c r="D3138" t="inlineStr">
@@ -63113,16 +63113,16 @@
     </row>
     <row r="3139">
       <c r="A3139">
-        <v>201123</v>
+        <v>198008</v>
       </c>
       <c r="B3139" t="inlineStr">
         <is>
-          <t>CAP/CMSO/00820</t>
+          <t>GON/CSKS/ST02951</t>
         </is>
       </c>
       <c r="C3139" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>42917906</t>
         </is>
       </c>
       <c r="D3139" t="inlineStr">
@@ -63133,36 +63133,36 @@
     </row>
     <row r="3140">
       <c r="A3140">
-        <v>173773</v>
+        <v>197715</v>
       </c>
       <c r="B3140" t="inlineStr">
         <is>
-          <t>PIG/CSSR/ST00784</t>
+          <t>PDP/HICP/ST06232</t>
         </is>
       </c>
       <c r="C3140" t="inlineStr">
         <is>
-          <t>33680351</t>
+          <t>43282011</t>
         </is>
       </c>
       <c r="D3140" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>46347852</t>
         </is>
       </c>
     </row>
     <row r="3141">
       <c r="A3141">
-        <v>72851</v>
+        <v>200313</v>
       </c>
       <c r="B3141" t="inlineStr">
         <is>
-          <t>GON/CSKS/ST01687</t>
+          <t>PIG/CSSR/ST00847</t>
         </is>
       </c>
       <c r="C3141" t="inlineStr">
         <is>
-          <t>50932484476</t>
+          <t>40284420</t>
         </is>
       </c>
       <c r="D3141" t="inlineStr">
@@ -63173,36 +63173,36 @@
     </row>
     <row r="3142">
       <c r="A3142">
-        <v>48192</v>
+        <v>20076</v>
       </c>
       <c r="B3142" t="inlineStr">
         <is>
-          <t>GON/CSKS/ST01947</t>
+          <t>CAP/HSCM/ST03050</t>
         </is>
       </c>
       <c r="C3142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>---</t>
         </is>
       </c>
       <c r="D3142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>---</t>
         </is>
       </c>
     </row>
     <row r="3143">
       <c r="A3143">
-        <v>201092</v>
+        <v>201123</v>
       </c>
       <c r="B3143" t="inlineStr">
         <is>
-          <t>GON/CSKS/ST03081</t>
+          <t>CAP/CMSO/00820</t>
         </is>
       </c>
       <c r="C3143" t="inlineStr">
         <is>
-          <t>35837373</t>
+          <t>---</t>
         </is>
       </c>
       <c r="D3143" t="inlineStr">
@@ -63213,16 +63213,16 @@
     </row>
     <row r="3144">
       <c r="A3144">
-        <v>27001</v>
+        <v>173773</v>
       </c>
       <c r="B3144" t="inlineStr">
         <is>
-          <t>MCH/HCHM/ST00758</t>
+          <t>PIG/CSSR/ST00784</t>
         </is>
       </c>
       <c r="C3144" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>33680351</t>
         </is>
       </c>
       <c r="D3144" t="inlineStr">
@@ -63233,16 +63233,16 @@
     </row>
     <row r="3145">
       <c r="A3145">
-        <v>169187</v>
+        <v>72851</v>
       </c>
       <c r="B3145" t="inlineStr">
         <is>
-          <t>MCH/HCHM/ST02229</t>
+          <t>GON/CSKS/ST01687</t>
         </is>
       </c>
       <c r="C3145" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>50932484476</t>
         </is>
       </c>
       <c r="D3145" t="inlineStr">
@@ -63253,36 +63253,36 @@
     </row>
     <row r="3146">
       <c r="A3146">
-        <v>125135</v>
+        <v>48192</v>
       </c>
       <c r="B3146" t="inlineStr">
         <is>
-          <t>SMA/CSSM/ST00985</t>
+          <t>GON/CSKS/ST01947</t>
         </is>
       </c>
       <c r="C3146" t="inlineStr">
         <is>
-          <t>50934097877</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D3146" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3147">
       <c r="A3147">
-        <v>71619</v>
+        <v>201092</v>
       </c>
       <c r="B3147" t="inlineStr">
         <is>
-          <t>SMA/CSSM/ST00909</t>
+          <t>GON/CSKS/ST03081</t>
         </is>
       </c>
       <c r="C3147" t="inlineStr">
         <is>
-          <t>47156845</t>
+          <t>35837373</t>
         </is>
       </c>
       <c r="D3147" t="inlineStr">
@@ -63293,16 +63293,16 @@
     </row>
     <row r="3148">
       <c r="A3148">
-        <v>170846</v>
+        <v>27001</v>
       </c>
       <c r="B3148" t="inlineStr">
         <is>
-          <t>ENN/HTLO/ST00636</t>
+          <t>MCH/HCHM/ST00758</t>
         </is>
       </c>
       <c r="C3148" t="inlineStr">
         <is>
-          <t>32590537</t>
+          <t>---</t>
         </is>
       </c>
       <c r="D3148" t="inlineStr">
@@ -63313,11 +63313,11 @@
     </row>
     <row r="3149">
       <c r="A3149">
-        <v>205539</v>
+        <v>169187</v>
       </c>
       <c r="B3149" t="inlineStr">
         <is>
-          <t>CAP/CMCD/ST01914</t>
+          <t>MCH/HCHM/ST02229</t>
         </is>
       </c>
       <c r="C3149" t="inlineStr">
@@ -63333,16 +63333,16 @@
     </row>
     <row r="3150">
       <c r="A3150">
-        <v>209184</v>
+        <v>125135</v>
       </c>
       <c r="B3150" t="inlineStr">
         <is>
-          <t>CAP/CMSO/ST00391</t>
+          <t>SMA/CSSM/ST00985</t>
         </is>
       </c>
       <c r="C3150" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>50934097877</t>
         </is>
       </c>
       <c r="D3150" t="inlineStr">
@@ -63353,16 +63353,16 @@
     </row>
     <row r="3151">
       <c r="A3151">
-        <v>171958</v>
+        <v>71619</v>
       </c>
       <c r="B3151" t="inlineStr">
         <is>
-          <t>JER/HHFJ/ST01224</t>
+          <t>SMA/CSSM/ST00909</t>
         </is>
       </c>
       <c r="C3151" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>47156845</t>
         </is>
       </c>
       <c r="D3151" t="inlineStr">
@@ -63373,19 +63373,99 @@
     </row>
     <row r="3152">
       <c r="A3152">
+        <v>170846</v>
+      </c>
+      <c r="B3152" t="inlineStr">
+        <is>
+          <t>ENN/HTLO/ST00636</t>
+        </is>
+      </c>
+      <c r="C3152" t="inlineStr">
+        <is>
+          <t>32590537</t>
+        </is>
+      </c>
+      <c r="D3152" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+    </row>
+    <row r="3153">
+      <c r="A3153">
+        <v>205539</v>
+      </c>
+      <c r="B3153" t="inlineStr">
+        <is>
+          <t>CAP/CMCD/ST01914</t>
+        </is>
+      </c>
+      <c r="C3153" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D3153" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+    </row>
+    <row r="3154">
+      <c r="A3154">
+        <v>209184</v>
+      </c>
+      <c r="B3154" t="inlineStr">
+        <is>
+          <t>CAP/CMSO/ST00391</t>
+        </is>
+      </c>
+      <c r="C3154" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D3154" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+    </row>
+    <row r="3155">
+      <c r="A3155">
+        <v>171958</v>
+      </c>
+      <c r="B3155" t="inlineStr">
+        <is>
+          <t>JER/HHFJ/ST01224</t>
+        </is>
+      </c>
+      <c r="C3155" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D3155" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+    </row>
+    <row r="3156">
+      <c r="A3156">
         <v>86810</v>
       </c>
-      <c r="B3152" t="inlineStr">
+      <c r="B3156" t="inlineStr">
         <is>
           <t>PDP/HBSB/ST00054</t>
         </is>
       </c>
-      <c r="C3152" t="inlineStr">
+      <c r="C3156" t="inlineStr">
         <is>
           <t>32229376</t>
         </is>
       </c>
-      <c r="D3152" t="inlineStr">
+      <c r="D3156" t="inlineStr">
         <is>
           <t>40690273</t>
         </is>
